--- a/resources/master.xlsx
+++ b/resources/master.xlsx
@@ -2,17 +2,163 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="11700" windowHeight="13050"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="11700" windowHeight="13050" tabRatio="798" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="シート名" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="レアリティ定義" sheetId="3" r:id="rId1"/>
+    <sheet name="カードクラス定義" sheetId="2" r:id="rId2"/>
+    <sheet name="カード定義" sheetId="1" r:id="rId3"/>
+    <sheet name="カード定義 (2)" sheetId="5" r:id="rId4"/>
+    <sheet name="カード定義 (3)" sheetId="6" r:id="rId5"/>
+    <sheet name="カード定義 (4)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
+  <si>
+    <t>あ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>え</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weight_order</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あああ</t>
+  </si>
+  <si>
+    <t>あああ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいい</t>
+  </si>
+  <si>
+    <t>いいい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ううう</t>
+  </si>
+  <si>
+    <t>ううう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えええ</t>
+  </si>
+  <si>
+    <t>えええ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぬるぽ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かきく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レアリティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義名</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コモン</t>
+  </si>
+  <si>
+    <t>コモン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンコモン</t>
+  </si>
+  <si>
+    <t>アンコモン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レア</t>
+  </si>
+  <si>
+    <t>レア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパーレア</t>
+  </si>
+  <si>
+    <t>スーパーレア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウルトラレア</t>
+  </si>
+  <si>
+    <t>ウルトラレア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34,12 +180,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -56,8 +208,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -361,67 +516,567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>51516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>627427</v>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>カードクラス定義!$B$2:$B65536</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>レアリティ定義!$B$2:$B$65536</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>レアリティ定義!$B$2:$B$65536</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>カードクラス定義!$B$2:$B65536</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>カードクラス定義!$B$2:$B65536</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>レアリティ定義!$B$2:$B$65536</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>レアリティ定義!$B$2:$B$65536</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>カードクラス定義!$B$2:$B65536</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/resources/master.xlsx
+++ b/resources/master.xlsx
@@ -4,22 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="11700" windowHeight="13050" tabRatio="798" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="11700" windowHeight="13050" tabRatio="798" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="レアリティ定義" sheetId="3" r:id="rId1"/>
-    <sheet name="カードクラス定義" sheetId="2" r:id="rId2"/>
-    <sheet name="カード定義" sheetId="1" r:id="rId3"/>
-    <sheet name="カード定義 (2)" sheetId="5" r:id="rId4"/>
-    <sheet name="カード定義 (3)" sheetId="6" r:id="rId5"/>
-    <sheet name="カード定義 (4)" sheetId="7" r:id="rId6"/>
+    <sheet name="空定義" sheetId="8" r:id="rId1"/>
+    <sheet name="アイテム定義" sheetId="14" r:id="rId2"/>
+    <sheet name="アイテム種別定義" sheetId="13" r:id="rId3"/>
+    <sheet name="装備クラス定義" sheetId="12" r:id="rId4"/>
+    <sheet name="装備定義" sheetId="11" r:id="rId5"/>
+    <sheet name="キャラクタ定義" sheetId="10" r:id="rId6"/>
+    <sheet name="素材定義" sheetId="9" r:id="rId7"/>
+    <sheet name="レアリティ定義" sheetId="3" r:id="rId8"/>
+    <sheet name="カードクラス定義" sheetId="2" r:id="rId9"/>
+    <sheet name="カード定義" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>あ</t>
     <phoneticPr fontId="1"/>
@@ -156,6 +160,74 @@
   </si>
   <si>
     <t>ウルトラレア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材名</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復サイクル（秒）</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石</t>
+    <rPh sb="0" eb="1">
+      <t>イシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食糧</t>
+    <rPh sb="0" eb="2">
+      <t>ショクリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -194,12 +266,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -208,11 +289,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,168 +600,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B6" sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
@@ -775,308 +718,326 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <dataConsolidate/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>レアリティ定義!$B$2:$B$65536</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>カードクラス定義!$B$2:$B65536</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>カードクラス定義!$B$2:$B65536</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>レアリティ定義!$B$2:$B$65536</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>レアリティ定義!$B$2:$B$65536</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>カードクラス定義!$B$2:$B65536</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/resources/master.xlsx
+++ b/resources/master.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="11700" windowHeight="13050" tabRatio="798" activeTab="1"/>
+    <workbookView xWindow="1875" yWindow="90" windowWidth="11700" windowHeight="13050" tabRatio="798" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="空定義" sheetId="8" r:id="rId1"/>
-    <sheet name="アイテム定義" sheetId="14" r:id="rId2"/>
-    <sheet name="アイテム種別定義" sheetId="13" r:id="rId3"/>
-    <sheet name="装備クラス定義" sheetId="12" r:id="rId4"/>
-    <sheet name="装備定義" sheetId="11" r:id="rId5"/>
-    <sheet name="キャラクタ定義" sheetId="10" r:id="rId6"/>
-    <sheet name="素材定義" sheetId="9" r:id="rId7"/>
-    <sheet name="レアリティ定義" sheetId="3" r:id="rId8"/>
-    <sheet name="カードクラス定義" sheetId="2" r:id="rId9"/>
-    <sheet name="カード定義" sheetId="1" r:id="rId10"/>
+    <sheet name="コードグループ定義" sheetId="17" r:id="rId2"/>
+    <sheet name="コード定義" sheetId="18" r:id="rId3"/>
+    <sheet name="出撃先定義" sheetId="16" r:id="rId4"/>
+    <sheet name="アイテム定義" sheetId="14" r:id="rId5"/>
+    <sheet name="アイテム種別定義" sheetId="13" r:id="rId6"/>
+    <sheet name="装備クラス定義" sheetId="12" r:id="rId7"/>
+    <sheet name="装備定義" sheetId="11" r:id="rId8"/>
+    <sheet name="キャラクタ定義" sheetId="10" r:id="rId9"/>
+    <sheet name="素材定義" sheetId="9" r:id="rId10"/>
+    <sheet name="レアリティ定義" sheetId="3" r:id="rId11"/>
+    <sheet name="カードクラス定義" sheetId="2" r:id="rId12"/>
+    <sheet name="カード定義" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>あ</t>
     <phoneticPr fontId="1"/>
@@ -230,12 +233,34 @@
     <t>D</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +271,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -289,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,6 +331,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -309,12 +345,88 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="1971675"/>
+          <a:ext cx="1800225" cy="2714625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>本定義は</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -356,7 +468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,7 +503,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,23 +712,442 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -702,15 +1233,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
+            <xm:f>レアリティ定義!$B$2:$B$65536</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
             <xm:f>カードクラス定義!$B$2:$B65536</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>レアリティ定義!$B$2:$B$65536</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -720,9 +1251,451 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
@@ -736,7 +1709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -754,7 +1727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -772,7 +1745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -790,7 +1763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -806,238 +1779,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/resources/master.xlsx
+++ b/resources/master.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="90" windowWidth="11700" windowHeight="13050" tabRatio="798" activeTab="1"/>
+    <workbookView xWindow="1875" yWindow="90" windowWidth="11700" windowHeight="13050" tabRatio="798" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="空定義" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>あ</t>
     <phoneticPr fontId="1"/>
@@ -253,6 +253,10 @@
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ITEM</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -426,7 +430,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -468,7 +472,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,7 +507,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1253,9 +1257,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1276,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1667,11 +1671,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1682,6 +1686,151 @@
       </c>
       <c r="B1" s="3" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
